--- a/bank customer churn BClassification_project/bank customer churn test data prediction.xlsx
+++ b/bank customer churn BClassification_project/bank customer churn test data prediction.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RPC\Desktop\jupyter files\1-ML &amp; Data Science projects-github\Bank customer churn BClassification_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72807D86-A923-4D34-B57A-6250317161E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EDDB02-EB95-4ED4-A904-827DF6E65423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="43">
   <si>
     <t>Credit Score</t>
   </si>
@@ -146,6 +157,9 @@
   </si>
   <si>
     <t>Excellent</t>
+  </si>
+  <si>
+    <t>Customer-ID</t>
   </si>
 </sst>
 </file>
@@ -508,5311 +522,5713 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q100"/>
+  <dimension ref="A1:R100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="Q85" sqref="Q85"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.08984375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A2" t="str">
+        <f ca="1">"ID"&amp;RANDBETWEEN(1000,2000)</f>
+        <v>ID1178</v>
+      </c>
+      <c r="B2">
         <v>619</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>42</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>2</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
       <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>101348.88</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>23</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>24</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>25</v>
       </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A66" ca="1" si="0">"ID"&amp;RANDBETWEEN(1000,2000)</f>
+        <v>ID1878</v>
+      </c>
+      <c r="B3">
         <v>608</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>41</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
       <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>83807.86</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
         <v>27</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>20</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>112542.58</v>
       </c>
-      <c r="K3" t="s">
-        <v>28</v>
-      </c>
       <c r="L3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" t="s">
-        <v>29</v>
-      </c>
       <c r="N3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" t="s">
         <v>24</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>25</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.74467690362172256</v>
       </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4">
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ID1608</v>
+      </c>
+      <c r="B4">
         <v>663</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>30</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>36</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>6</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>77253.5</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
         <v>27</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>31</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>35817.97</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>21</v>
       </c>
-      <c r="L4" t="s">
-        <v>32</v>
-      </c>
       <c r="M4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" t="s">
         <v>24</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>33</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>2.156836358956133</v>
       </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="R4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ID1188</v>
+      </c>
+      <c r="B5">
         <v>742</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>30</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>114292.48</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
         <v>19</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>31</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>31520.400000000001</v>
       </c>
-      <c r="K5" t="s">
-        <v>28</v>
-      </c>
       <c r="L5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" t="s">
         <v>34</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>33</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>3.6259844418218039</v>
       </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="R5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ID1886</v>
+      </c>
+      <c r="B6">
         <v>710</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>35</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>43</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>140080.32000000001</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>3</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>19</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>20</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>157908.19</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>21</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>22</v>
       </c>
-      <c r="M6" t="s">
-        <v>29</v>
-      </c>
       <c r="N6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" t="s">
         <v>36</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>37</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>0.88709977614207347</v>
       </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="R6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ID1131</v>
+      </c>
+      <c r="B7">
         <v>710</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>27</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>135277.96</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
         <v>19</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>31</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>142200.15</v>
       </c>
-      <c r="K7" t="s">
-        <v>28</v>
-      </c>
       <c r="L7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" t="s">
         <v>36</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>25</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>0.95132079677834369</v>
       </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8">
+      <c r="R7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ID1834</v>
+      </c>
+      <c r="B8">
         <v>700</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>82</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>2</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>2</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>27</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>20</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>182055.36</v>
       </c>
-      <c r="K8" t="s">
-        <v>28</v>
-      </c>
       <c r="L8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" t="s">
         <v>38</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>23</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>36</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>37</v>
       </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9">
+      <c r="R8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ID1861</v>
+      </c>
+      <c r="B9">
         <v>720</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>30</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>35</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>60</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>9</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>115920.62</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>2</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>27</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>31</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>157552.07999999999</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>21</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>38</v>
       </c>
-      <c r="M9" t="s">
-        <v>29</v>
-      </c>
       <c r="N9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" t="s">
         <v>36</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>37</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>0.73576064498799387</v>
       </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10">
+      <c r="R9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A10" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ID1902</v>
+      </c>
+      <c r="B10">
         <v>684</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>35</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>41</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>2</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>119782.72</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>2</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>27</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>31</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>120284.67</v>
       </c>
-      <c r="K10" t="s">
-        <v>28</v>
-      </c>
       <c r="L10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" t="s">
         <v>22</v>
       </c>
-      <c r="M10" t="s">
-        <v>29</v>
-      </c>
       <c r="N10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" t="s">
         <v>36</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>25</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>0.99582698277344905</v>
       </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11">
+      <c r="R10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ID1660</v>
+      </c>
+      <c r="B11">
         <v>531</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>18</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>63</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
       <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
         <v>114715.71</v>
       </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
         <v>27</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>20</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>24506.95</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>21</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>38</v>
       </c>
-      <c r="M11" t="s">
-        <v>29</v>
-      </c>
       <c r="N11" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" t="s">
         <v>39</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>33</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>4.6809460173542607</v>
       </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12">
+      <c r="R11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ID1101</v>
+      </c>
+      <c r="B12">
         <v>742</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>30</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>18</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>36</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>2</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>129748.54</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>2</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>27</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>31</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>47271.61</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>21</v>
       </c>
-      <c r="L12" t="s">
-        <v>32</v>
-      </c>
       <c r="M12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O12" t="s">
         <v>34</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>33</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>2.7447455248509618</v>
       </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A13">
+      <c r="R12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ID1439</v>
+      </c>
+      <c r="B13">
         <v>717</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>17</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>35</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>31</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>4</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>129722.57</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
         <v>27</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>31</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>41176.6</v>
       </c>
-      <c r="K13" t="s">
-        <v>28</v>
-      </c>
       <c r="L13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O13" t="s">
         <v>36</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>33</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>3.1503953701859801</v>
       </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14">
+      <c r="R13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A14" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ID1935</v>
+      </c>
+      <c r="B14">
         <v>589</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>17</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>35</v>
       </c>
-      <c r="D14">
-        <v>32</v>
-      </c>
       <c r="E14">
+        <v>32</v>
+      </c>
+      <c r="F14">
         <v>2</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
       <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>2</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>27</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>20</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>9468.64</v>
       </c>
-      <c r="K14" t="s">
-        <v>28</v>
-      </c>
       <c r="L14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N14" t="s">
         <v>23</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>24</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>33</v>
       </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A15">
+      <c r="R14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ID1603</v>
+      </c>
+      <c r="B15">
         <v>767</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>17</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>35</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>36</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>3</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>139180.20000000001</v>
       </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
         <v>27</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>31</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>123880.19</v>
       </c>
-      <c r="K15" t="s">
-        <v>28</v>
-      </c>
       <c r="L15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N15" t="s">
+        <v>29</v>
+      </c>
+      <c r="O15" t="s">
         <v>34</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>25</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>1.1235065106051261</v>
       </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A16">
+      <c r="R15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A16" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ID1931</v>
+      </c>
+      <c r="B16">
         <v>636</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>30</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>35</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>49</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>6</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>113599.74</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>2</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>19</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>31</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>158887.09</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>21</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>22</v>
       </c>
-      <c r="M16" t="s">
-        <v>29</v>
-      </c>
       <c r="N16" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" t="s">
         <v>24</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>37</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>0.71497149327865472</v>
       </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A17">
+      <c r="R16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A17" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ID1287</v>
+      </c>
+      <c r="B17">
         <v>648</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>17</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>35</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>33</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>7</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>134944</v>
       </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
         <v>19</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>20</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>117036.38</v>
       </c>
-      <c r="K17" t="s">
-        <v>28</v>
-      </c>
       <c r="L17" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M17" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N17" t="s">
+        <v>29</v>
+      </c>
+      <c r="O17" t="s">
         <v>24</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>25</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>1.153009004550551</v>
       </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A18">
+      <c r="R17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A18" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ID1010</v>
+      </c>
+      <c r="B18">
         <v>622</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>30</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>18</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>58</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>7</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>116922.25</v>
       </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
         <v>19</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>31</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>120415.61</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>21</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>22</v>
       </c>
-      <c r="M18" t="s">
-        <v>29</v>
-      </c>
       <c r="N18" t="s">
+        <v>29</v>
+      </c>
+      <c r="O18" t="s">
         <v>24</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>25</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>0.97098914335109876</v>
       </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A19">
+      <c r="R18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ID1491</v>
+      </c>
+      <c r="B19">
         <v>692</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>26</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>35</v>
       </c>
-      <c r="D19">
-        <v>28</v>
-      </c>
       <c r="E19">
+        <v>28</v>
+      </c>
+      <c r="F19">
         <v>9</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>118945.09</v>
       </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
         <v>27</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>31</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>16064.25</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>21</v>
       </c>
-      <c r="L19" t="s">
-        <v>32</v>
-      </c>
       <c r="M19" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N19" t="s">
+        <v>29</v>
+      </c>
+      <c r="O19" t="s">
         <v>36</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>33</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>7.4043350918966029</v>
       </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A20">
+      <c r="R19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A20" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ID1758</v>
+      </c>
+      <c r="B20">
         <v>754</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>17</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>35</v>
       </c>
-      <c r="D20">
-        <v>28</v>
-      </c>
       <c r="E20">
+        <v>28</v>
+      </c>
+      <c r="F20">
         <v>8</v>
       </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
       <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <v>2</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>19</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>20</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>52615.62</v>
       </c>
-      <c r="K20" t="s">
-        <v>28</v>
-      </c>
       <c r="L20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M20" t="s">
+        <v>32</v>
+      </c>
+      <c r="N20" t="s">
         <v>23</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>34</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>40</v>
       </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A21">
+      <c r="R20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A21" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ID1059</v>
+      </c>
+      <c r="B21">
         <v>679</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>26</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>18</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>35</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>8</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>119182.73</v>
       </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
         <v>27</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>31</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>121210.09</v>
       </c>
-      <c r="K21" t="s">
-        <v>28</v>
-      </c>
       <c r="L21" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M21" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N21" t="s">
+        <v>29</v>
+      </c>
+      <c r="O21" t="s">
         <v>36</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>25</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>0.98327399971405016</v>
       </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A22">
+      <c r="R21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A22" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ID1960</v>
+      </c>
+      <c r="B22">
         <v>793</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>26</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>18</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>36</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
         <v>27</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>31</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>148993.47</v>
       </c>
-      <c r="K22" t="s">
-        <v>28</v>
-      </c>
       <c r="L22" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M22" t="s">
+        <v>32</v>
+      </c>
+      <c r="N22" t="s">
         <v>23</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>34</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>25</v>
       </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A23">
+      <c r="R22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ID1661</v>
+      </c>
+      <c r="B23">
         <v>554</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>17</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>18</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>35</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>6</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>117707.18</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>2</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>27</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>31</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>95277.15</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>21</v>
       </c>
-      <c r="L23" t="s">
-        <v>32</v>
-      </c>
       <c r="M23" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N23" t="s">
+        <v>29</v>
+      </c>
+      <c r="O23" t="s">
         <v>39</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>40</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>1.235418775645577</v>
       </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A24">
+      <c r="R23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A24" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ID1128</v>
+      </c>
+      <c r="B24">
         <v>533</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>26</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>35</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>38</v>
       </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
       <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
         <v>135289.32999999999</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>2</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>27</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>20</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>152956.32999999999</v>
       </c>
-      <c r="K24" t="s">
-        <v>28</v>
-      </c>
       <c r="L24" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M24" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N24" t="s">
+        <v>29</v>
+      </c>
+      <c r="O24" t="s">
         <v>39</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>37</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>0.88449644418115936</v>
       </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A25">
+      <c r="R24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A25" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ID1878</v>
+      </c>
+      <c r="B25">
         <v>658</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>17</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>35</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>36</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>8</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>174060.46</v>
       </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
         <v>19</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>20</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>94925.62</v>
       </c>
-      <c r="K25" t="s">
-        <v>28</v>
-      </c>
       <c r="L25" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M25" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N25" t="s">
+        <v>29</v>
+      </c>
+      <c r="O25" t="s">
         <v>24</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>40</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>1.8336510206622829</v>
       </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A26">
+      <c r="R25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A26" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ID1065</v>
+      </c>
+      <c r="B26">
         <v>713</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>30</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>35</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>40</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>3</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>114446.84</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>2</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>19</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>20</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>87308.18</v>
       </c>
-      <c r="K26" t="s">
-        <v>28</v>
-      </c>
       <c r="L26" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M26" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N26" t="s">
+        <v>29</v>
+      </c>
+      <c r="O26" t="s">
         <v>36</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>40</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>1.31083754122466</v>
       </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A27">
+      <c r="R26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A27" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ID1527</v>
+      </c>
+      <c r="B27">
         <v>711</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>26</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>35</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>37</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>2</v>
       </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
       <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
         <v>2</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>19</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>31</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>83978.86</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>21</v>
       </c>
-      <c r="L27" t="s">
-        <v>32</v>
-      </c>
       <c r="M27" t="s">
+        <v>32</v>
+      </c>
+      <c r="N27" t="s">
         <v>23</v>
       </c>
-      <c r="N27" t="s">
+      <c r="O27" t="s">
         <v>36</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>40</v>
       </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
       <c r="Q27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A28">
+      <c r="R27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A28" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ID1932</v>
+      </c>
+      <c r="B28">
         <v>669</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>17</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>35</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>25</v>
       </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
       <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
         <v>157848.53</v>
       </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
         <v>27</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>31</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>37543.93</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>21</v>
       </c>
-      <c r="L28" t="s">
-        <v>32</v>
-      </c>
       <c r="M28" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N28" t="s">
+        <v>29</v>
+      </c>
+      <c r="O28" t="s">
         <v>24</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>33</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>4.2043688553649021</v>
       </c>
-      <c r="Q28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A29">
+      <c r="R28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A29" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ID1291</v>
+      </c>
+      <c r="B29">
         <v>439</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>17</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>18</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>43</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>8</v>
       </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
       <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
         <v>27</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>20</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>104889.3</v>
       </c>
-      <c r="K29" t="s">
-        <v>28</v>
-      </c>
       <c r="L29" t="s">
+        <v>28</v>
+      </c>
+      <c r="M29" t="s">
         <v>22</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>23</v>
       </c>
-      <c r="N29" t="s">
+      <c r="O29" t="s">
         <v>39</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>25</v>
       </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
       <c r="Q29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A30">
+      <c r="R29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A30" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ID1710</v>
+      </c>
+      <c r="B30">
         <v>763</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>26</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>18</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>37</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>6</v>
       </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
       <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
         <v>2</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>19</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>20</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>149705.25</v>
       </c>
-      <c r="K30" t="s">
-        <v>28</v>
-      </c>
       <c r="L30" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M30" t="s">
+        <v>32</v>
+      </c>
+      <c r="N30" t="s">
         <v>23</v>
       </c>
-      <c r="N30" t="s">
+      <c r="O30" t="s">
         <v>34</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
         <v>25</v>
       </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
       <c r="Q30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A31">
+      <c r="R30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A31" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ID1691</v>
+      </c>
+      <c r="B31">
         <v>697</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>30</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>18</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>74</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>3</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>108071.36</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>2</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>19</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>20</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>16445.79</v>
       </c>
-      <c r="K31" t="s">
-        <v>28</v>
-      </c>
       <c r="L31" t="s">
+        <v>28</v>
+      </c>
+      <c r="M31" t="s">
         <v>38</v>
       </c>
-      <c r="M31" t="s">
-        <v>29</v>
-      </c>
       <c r="N31" t="s">
+        <v>29</v>
+      </c>
+      <c r="O31" t="s">
         <v>36</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>33</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>6.5713693291717821</v>
       </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A32">
+      <c r="R31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A32" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ID1244</v>
+      </c>
+      <c r="B32">
         <v>702</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>26</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>18</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>35</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>8</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>14262.8</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>2</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>19</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>31</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>54689.16</v>
       </c>
-      <c r="K32" t="s">
-        <v>28</v>
-      </c>
       <c r="L32" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M32" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N32" t="s">
+        <v>29</v>
+      </c>
+      <c r="O32" t="s">
         <v>36</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
         <v>40</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>0.26079756939035081</v>
       </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A33">
+      <c r="R32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A33" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ID1017</v>
+      </c>
+      <c r="B33">
         <v>686</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>26</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>35</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>41</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>7</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>102749.72</v>
       </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33" t="s">
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33" t="s">
         <v>27</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>20</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>194913.86</v>
       </c>
-      <c r="K33" t="s">
-        <v>28</v>
-      </c>
       <c r="L33" t="s">
+        <v>28</v>
+      </c>
+      <c r="M33" t="s">
         <v>22</v>
       </c>
-      <c r="M33" t="s">
-        <v>29</v>
-      </c>
       <c r="N33" t="s">
+        <v>29</v>
+      </c>
+      <c r="O33" t="s">
         <v>36</v>
       </c>
-      <c r="O33" t="s">
+      <c r="P33" t="s">
         <v>37</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>0.52715450815042098</v>
       </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A34">
+      <c r="R33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A34" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ID1144</v>
+      </c>
+      <c r="B34">
         <v>629</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>26</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>35</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>36</v>
       </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
       <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
         <v>161757.87</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>2</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>19</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>20</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>146371.72</v>
       </c>
-      <c r="K34" t="s">
-        <v>28</v>
-      </c>
       <c r="L34" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M34" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N34" t="s">
+        <v>29</v>
+      </c>
+      <c r="O34" t="s">
         <v>24</v>
       </c>
-      <c r="O34" t="s">
+      <c r="P34" t="s">
         <v>25</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>1.105116958385131</v>
       </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A35">
+      <c r="R34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A35" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ID1011</v>
+      </c>
+      <c r="B35">
         <v>823</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>17</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>35</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>38</v>
       </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
       <c r="F35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
         <v>2</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>19</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>31</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>156603.70000000001</v>
       </c>
-      <c r="K35" t="s">
-        <v>28</v>
-      </c>
       <c r="L35" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M35" t="s">
+        <v>32</v>
+      </c>
+      <c r="N35" t="s">
         <v>23</v>
       </c>
-      <c r="N35" t="s">
+      <c r="O35" t="s">
         <v>41</v>
       </c>
-      <c r="O35" t="s">
+      <c r="P35" t="s">
         <v>37</v>
       </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
       <c r="Q35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A36">
+      <c r="R35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A36" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ID1191</v>
+      </c>
+      <c r="B36">
         <v>683</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>30</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>18</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>35</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>5</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>95698.79</v>
       </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="H36" t="s">
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36" t="s">
         <v>27</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>20</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>182566.76</v>
       </c>
-      <c r="K36" t="s">
-        <v>28</v>
-      </c>
       <c r="L36" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M36" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N36" t="s">
+        <v>29</v>
+      </c>
+      <c r="O36" t="s">
         <v>36</v>
       </c>
-      <c r="O36" t="s">
+      <c r="P36" t="s">
         <v>37</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>0.52418518025953897</v>
       </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A37">
+      <c r="R36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A37" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ID1424</v>
+      </c>
+      <c r="B37">
         <v>555</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>17</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>35</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>37</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>9</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>124969.13</v>
       </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37" t="s">
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37" t="s">
         <v>19</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>31</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>60194.05</v>
       </c>
-      <c r="K37" t="s">
-        <v>28</v>
-      </c>
       <c r="L37" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M37" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N37" t="s">
+        <v>29</v>
+      </c>
+      <c r="O37" t="s">
         <v>39</v>
       </c>
-      <c r="O37" t="s">
+      <c r="P37" t="s">
         <v>40</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>2.0761043657969518</v>
       </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A38">
+      <c r="R37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A38" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ID1993</v>
+      </c>
+      <c r="B38">
         <v>647</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>30</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>35</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>44</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>4</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>93960.35</v>
       </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="H38" t="s">
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38" t="s">
         <v>19</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>31</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>36579.53</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>21</v>
       </c>
-      <c r="L38" t="s">
+      <c r="M38" t="s">
         <v>22</v>
       </c>
-      <c r="M38" t="s">
-        <v>29</v>
-      </c>
       <c r="N38" t="s">
+        <v>29</v>
+      </c>
+      <c r="O38" t="s">
         <v>24</v>
       </c>
-      <c r="O38" t="s">
+      <c r="P38" t="s">
         <v>33</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>2.568659302074138</v>
       </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A39">
+      <c r="R38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A39" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ID1285</v>
+      </c>
+      <c r="B39">
         <v>714</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>17</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>18</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>51</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>4</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>88308.87</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>3</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>27</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>31</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>5862.53</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>21</v>
       </c>
-      <c r="L39" t="s">
+      <c r="M39" t="s">
         <v>22</v>
       </c>
-      <c r="M39" t="s">
-        <v>29</v>
-      </c>
       <c r="N39" t="s">
+        <v>29</v>
+      </c>
+      <c r="O39" t="s">
         <v>36</v>
       </c>
-      <c r="O39" t="s">
+      <c r="P39" t="s">
         <v>33</v>
       </c>
-      <c r="P39">
+      <c r="Q39">
         <v>15.06326961226638</v>
       </c>
-      <c r="Q39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A40">
+      <c r="R39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A40" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ID1412</v>
+      </c>
+      <c r="B40">
         <v>850</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>26</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>18</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>39</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>10</v>
       </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
       <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
         <v>2</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>19</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>20</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>143030.09</v>
       </c>
-      <c r="K40" t="s">
-        <v>28</v>
-      </c>
       <c r="L40" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M40" t="s">
+        <v>32</v>
+      </c>
+      <c r="N40" t="s">
         <v>23</v>
       </c>
-      <c r="N40" t="s">
+      <c r="O40" t="s">
         <v>41</v>
       </c>
-      <c r="O40" t="s">
+      <c r="P40" t="s">
         <v>25</v>
       </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
       <c r="Q40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A41">
+      <c r="R40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A41" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ID1671</v>
+      </c>
+      <c r="B41">
         <v>788</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>30</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>18</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>57</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>8</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>93716.72</v>
       </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41" t="s">
         <v>19</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>20</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>180150.49</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>21</v>
       </c>
-      <c r="L41" t="s">
+      <c r="M41" t="s">
         <v>22</v>
       </c>
-      <c r="M41" t="s">
-        <v>29</v>
-      </c>
       <c r="N41" t="s">
+        <v>29</v>
+      </c>
+      <c r="O41" t="s">
         <v>34</v>
       </c>
-      <c r="O41" t="s">
+      <c r="P41" t="s">
         <v>37</v>
       </c>
-      <c r="P41">
+      <c r="Q41">
         <v>0.52021351704344521</v>
       </c>
-      <c r="Q41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A42">
+      <c r="R41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A42" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ID1832</v>
+      </c>
+      <c r="B42">
         <v>798</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>17</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>18</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>37</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>4</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>111723.08</v>
       </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="H42" t="s">
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42" t="s">
         <v>19</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>20</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>83478.12</v>
       </c>
-      <c r="K42" t="s">
-        <v>28</v>
-      </c>
       <c r="L42" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M42" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N42" t="s">
+        <v>29</v>
+      </c>
+      <c r="O42" t="s">
         <v>34</v>
       </c>
-      <c r="O42" t="s">
+      <c r="P42" t="s">
         <v>40</v>
       </c>
-      <c r="P42">
+      <c r="Q42">
         <v>1.33835165430175</v>
       </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A43">
+      <c r="R42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A43" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ID1996</v>
+      </c>
+      <c r="B43">
         <v>770</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>30</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>35</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>45</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>4</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>110765.68</v>
       </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="H43" t="s">
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43" t="s">
         <v>19</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>31</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>26163.74</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
         <v>21</v>
       </c>
-      <c r="L43" t="s">
+      <c r="M43" t="s">
         <v>22</v>
       </c>
-      <c r="M43" t="s">
-        <v>29</v>
-      </c>
       <c r="N43" t="s">
+        <v>29</v>
+      </c>
+      <c r="O43" t="s">
         <v>34</v>
       </c>
-      <c r="O43" t="s">
+      <c r="P43" t="s">
         <v>33</v>
       </c>
-      <c r="P43">
+      <c r="Q43">
         <v>4.2335568232981977</v>
       </c>
-      <c r="Q43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A44">
+      <c r="R43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A44" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ID1053</v>
+      </c>
+      <c r="B44">
         <v>569</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>30</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>35</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>25</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>9</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>173459.45</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>2</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>19</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>20</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>44381.06</v>
       </c>
-      <c r="K44" t="s">
-        <v>28</v>
-      </c>
       <c r="L44" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M44" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N44" t="s">
+        <v>29</v>
+      </c>
+      <c r="O44" t="s">
         <v>39</v>
       </c>
-      <c r="O44" t="s">
+      <c r="P44" t="s">
         <v>33</v>
       </c>
-      <c r="P44">
+      <c r="Q44">
         <v>3.9084116062122001</v>
       </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A45">
+      <c r="R44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A45" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ID1082</v>
+      </c>
+      <c r="B45">
         <v>425</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>26</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>18</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>22</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>7</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>169649.73</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>2</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>27</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>20</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>136365</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
         <v>21</v>
       </c>
-      <c r="L45" t="s">
-        <v>32</v>
-      </c>
       <c r="M45" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N45" t="s">
+        <v>29</v>
+      </c>
+      <c r="O45" t="s">
         <v>39</v>
       </c>
-      <c r="O45" t="s">
+      <c r="P45" t="s">
         <v>25</v>
       </c>
-      <c r="P45">
+      <c r="Q45">
         <v>1.2440855791442089</v>
       </c>
-      <c r="Q45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A46">
+      <c r="R45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A46" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ID1196</v>
+      </c>
+      <c r="B46">
         <v>547</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>26</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>18</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>31</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>9</v>
       </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
       <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
         <v>2</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>27</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>31</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>99294.22</v>
       </c>
-      <c r="K46" t="s">
-        <v>28</v>
-      </c>
       <c r="L46" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M46" t="s">
+        <v>32</v>
+      </c>
+      <c r="N46" t="s">
         <v>23</v>
       </c>
-      <c r="N46" t="s">
+      <c r="O46" t="s">
         <v>39</v>
       </c>
-      <c r="O46" t="s">
+      <c r="P46" t="s">
         <v>40</v>
       </c>
-      <c r="P46">
-        <v>0</v>
-      </c>
       <c r="Q46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A47">
+      <c r="R46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A47" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ID1867</v>
+      </c>
+      <c r="B47">
         <v>725</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>30</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>35</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>45</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>8</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>116917.07</v>
       </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-      <c r="H47" t="s">
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47" t="s">
         <v>27</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>31</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>173464.43</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
         <v>21</v>
       </c>
-      <c r="L47" t="s">
+      <c r="M47" t="s">
         <v>22</v>
       </c>
-      <c r="M47" t="s">
-        <v>29</v>
-      </c>
       <c r="N47" t="s">
+        <v>29</v>
+      </c>
+      <c r="O47" t="s">
         <v>36</v>
       </c>
-      <c r="O47" t="s">
+      <c r="P47" t="s">
         <v>37</v>
       </c>
-      <c r="P47">
+      <c r="Q47">
         <v>0.67401178443326981</v>
       </c>
-      <c r="Q47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A48">
+      <c r="R47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A48" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ID1292</v>
+      </c>
+      <c r="B48">
         <v>506</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>17</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>35</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>37</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>5</v>
       </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
       <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
         <v>2</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>19</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>20</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>127543.81</v>
       </c>
-      <c r="K48" t="s">
-        <v>28</v>
-      </c>
       <c r="L48" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M48" t="s">
+        <v>32</v>
+      </c>
+      <c r="N48" t="s">
         <v>23</v>
       </c>
-      <c r="N48" t="s">
+      <c r="O48" t="s">
         <v>39</v>
       </c>
-      <c r="O48" t="s">
+      <c r="P48" t="s">
         <v>25</v>
       </c>
-      <c r="P48">
-        <v>0</v>
-      </c>
       <c r="Q48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A49">
+      <c r="R48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A49" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ID1628</v>
+      </c>
+      <c r="B49">
         <v>632</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>17</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>18</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>36</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>7</v>
       </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
       <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
         <v>2</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>19</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>20</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>52526.65</v>
       </c>
-      <c r="K49" t="s">
-        <v>28</v>
-      </c>
       <c r="L49" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M49" t="s">
+        <v>32</v>
+      </c>
+      <c r="N49" t="s">
         <v>23</v>
       </c>
-      <c r="N49" t="s">
+      <c r="O49" t="s">
         <v>24</v>
       </c>
-      <c r="O49" t="s">
+      <c r="P49" t="s">
         <v>40</v>
       </c>
-      <c r="P49">
-        <v>0</v>
-      </c>
       <c r="Q49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A50">
+      <c r="R49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A50" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ID1886</v>
+      </c>
+      <c r="B50">
         <v>620</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>17</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>35</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>22</v>
       </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50">
-        <v>1</v>
-      </c>
-      <c r="H50" t="s">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50" t="s">
         <v>19</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>31</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>32589.45</v>
       </c>
-      <c r="K50" t="s">
-        <v>28</v>
-      </c>
       <c r="L50" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M50" t="s">
+        <v>32</v>
+      </c>
+      <c r="N50" t="s">
         <v>23</v>
       </c>
-      <c r="N50" t="s">
+      <c r="O50" t="s">
         <v>24</v>
       </c>
-      <c r="O50" t="s">
+      <c r="P50" t="s">
         <v>33</v>
       </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
       <c r="Q50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A51">
+      <c r="R50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ID1015</v>
+      </c>
+      <c r="B51">
         <v>663</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>30</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>35</v>
       </c>
-      <c r="D51">
-        <v>32</v>
-      </c>
       <c r="E51">
+        <v>32</v>
+      </c>
+      <c r="F51">
         <v>8</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>130627.66</v>
       </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-      <c r="H51" t="s">
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51" t="s">
         <v>19</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>31</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>47161.25</v>
       </c>
-      <c r="K51" t="s">
+      <c r="L51" t="s">
         <v>21</v>
       </c>
-      <c r="L51" t="s">
-        <v>32</v>
-      </c>
       <c r="M51" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N51" t="s">
+        <v>29</v>
+      </c>
+      <c r="O51" t="s">
         <v>24</v>
       </c>
-      <c r="O51" t="s">
+      <c r="P51" t="s">
         <v>33</v>
       </c>
-      <c r="P51">
+      <c r="Q51">
         <v>2.7698091123538919</v>
       </c>
-      <c r="Q51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A52">
+      <c r="R51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A52" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ID1077</v>
+      </c>
+      <c r="B52">
         <v>700</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>26</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>18</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>46</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>5</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>56580.95</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>2</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>27</v>
       </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>20</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>45424.13</v>
       </c>
-      <c r="K52" t="s">
-        <v>28</v>
-      </c>
       <c r="L52" t="s">
+        <v>28</v>
+      </c>
+      <c r="M52" t="s">
         <v>22</v>
       </c>
-      <c r="M52" t="s">
-        <v>29</v>
-      </c>
       <c r="N52" t="s">
+        <v>29</v>
+      </c>
+      <c r="O52" t="s">
         <v>36</v>
       </c>
-      <c r="O52" t="s">
+      <c r="P52" t="s">
         <v>33</v>
       </c>
-      <c r="P52">
+      <c r="Q52">
         <v>1.2456143904132011</v>
       </c>
-      <c r="Q52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A53">
+      <c r="R52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A53" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ID1349</v>
+      </c>
+      <c r="B53">
         <v>696</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>30</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>35</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>38</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>6</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>142316.14000000001</v>
       </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-      <c r="H53" t="s">
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53" t="s">
         <v>19</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>20</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>8018.49</v>
       </c>
-      <c r="K53" t="s">
-        <v>28</v>
-      </c>
       <c r="L53" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M53" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N53" t="s">
+        <v>29</v>
+      </c>
+      <c r="O53" t="s">
         <v>36</v>
       </c>
-      <c r="O53" t="s">
+      <c r="P53" t="s">
         <v>33</v>
       </c>
-      <c r="P53">
+      <c r="Q53">
         <v>17.74849628795447</v>
       </c>
-      <c r="Q53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A54">
+      <c r="R53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A54" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ID1982</v>
+      </c>
+      <c r="B54">
         <v>767</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>26</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>35</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>31</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>6</v>
       </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
       <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
         <v>2</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>19</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>20</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>195668</v>
       </c>
-      <c r="K54" t="s">
-        <v>28</v>
-      </c>
       <c r="L54" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M54" t="s">
+        <v>32</v>
+      </c>
+      <c r="N54" t="s">
         <v>23</v>
       </c>
-      <c r="N54" t="s">
+      <c r="O54" t="s">
         <v>34</v>
       </c>
-      <c r="O54" t="s">
+      <c r="P54" t="s">
         <v>37</v>
       </c>
-      <c r="P54">
-        <v>0</v>
-      </c>
       <c r="Q54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A55">
+      <c r="R54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A55" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ID1481</v>
+      </c>
+      <c r="B55">
         <v>561</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>17</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>35</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>56</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>7</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>152759</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>2</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>19</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>31</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>133167.10999999999</v>
       </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
         <v>21</v>
       </c>
-      <c r="L55" t="s">
+      <c r="M55" t="s">
         <v>22</v>
       </c>
-      <c r="M55" t="s">
-        <v>29</v>
-      </c>
       <c r="N55" t="s">
+        <v>29</v>
+      </c>
+      <c r="O55" t="s">
         <v>39</v>
       </c>
-      <c r="O55" t="s">
+      <c r="P55" t="s">
         <v>25</v>
       </c>
-      <c r="P55">
+      <c r="Q55">
         <v>1.1471225890537089</v>
       </c>
-      <c r="Q55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A56">
+      <c r="R55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A56" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ID1706</v>
+      </c>
+      <c r="B56">
         <v>350</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>30</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>35</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>39</v>
       </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
       <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
         <v>109733.2</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>2</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>27</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>31</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>123602.11</v>
       </c>
-      <c r="K56" t="s">
+      <c r="L56" t="s">
         <v>21</v>
       </c>
-      <c r="L56" t="s">
-        <v>32</v>
-      </c>
       <c r="M56" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N56" t="s">
+        <v>29</v>
+      </c>
+      <c r="O56" t="s">
         <v>39</v>
       </c>
-      <c r="O56" t="s">
+      <c r="P56" t="s">
         <v>25</v>
       </c>
-      <c r="P56">
+      <c r="Q56">
         <v>0.88779390578364714</v>
       </c>
-      <c r="Q56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A57">
+      <c r="R56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A57" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ID1665</v>
+      </c>
+      <c r="B57">
         <v>706</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>17</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>35</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>54</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>9</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>117444.51</v>
       </c>
-      <c r="G57">
-        <v>1</v>
-      </c>
-      <c r="H57" t="s">
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57" t="s">
         <v>19</v>
       </c>
-      <c r="I57" t="s">
+      <c r="J57" t="s">
         <v>20</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>186238.85</v>
       </c>
-      <c r="K57" t="s">
-        <v>28</v>
-      </c>
       <c r="L57" t="s">
+        <v>28</v>
+      </c>
+      <c r="M57" t="s">
         <v>22</v>
       </c>
-      <c r="M57" t="s">
-        <v>29</v>
-      </c>
       <c r="N57" t="s">
+        <v>29</v>
+      </c>
+      <c r="O57" t="s">
         <v>36</v>
       </c>
-      <c r="O57" t="s">
+      <c r="P57" t="s">
         <v>37</v>
       </c>
-      <c r="P57">
+      <c r="Q57">
         <v>0.63061230242776944</v>
       </c>
-      <c r="Q57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A58">
+      <c r="R57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A58" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ID1869</v>
+      </c>
+      <c r="B58">
         <v>464</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>26</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>18</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>34</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>5</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>76001.570000000007</v>
       </c>
-      <c r="G58">
-        <v>1</v>
-      </c>
-      <c r="H58" t="s">
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58" t="s">
         <v>19</v>
       </c>
-      <c r="I58" t="s">
+      <c r="J58" t="s">
         <v>20</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>158668.87</v>
       </c>
-      <c r="K58" t="s">
-        <v>28</v>
-      </c>
       <c r="L58" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M58" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N58" t="s">
+        <v>29</v>
+      </c>
+      <c r="O58" t="s">
         <v>39</v>
       </c>
-      <c r="O58" t="s">
+      <c r="P58" t="s">
         <v>37</v>
       </c>
-      <c r="P58">
+      <c r="Q58">
         <v>0.47899484000862941</v>
       </c>
-      <c r="Q58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A59">
+      <c r="R58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A59" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ID1577</v>
+      </c>
+      <c r="B59">
         <v>501</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>17</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>18</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>34</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>3</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>107747.57</v>
       </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-      <c r="H59" t="s">
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59" t="s">
         <v>19</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>31</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>9249.36</v>
       </c>
-      <c r="K59" t="s">
-        <v>28</v>
-      </c>
       <c r="L59" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M59" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N59" t="s">
+        <v>29</v>
+      </c>
+      <c r="O59" t="s">
         <v>39</v>
       </c>
-      <c r="O59" t="s">
+      <c r="P59" t="s">
         <v>33</v>
       </c>
-      <c r="P59">
+      <c r="Q59">
         <v>11.649191944091269</v>
       </c>
-      <c r="Q59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A60">
+      <c r="R59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A60" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ID1220</v>
+      </c>
+      <c r="B60">
         <v>625</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>26</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>18</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>69</v>
       </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
       <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
         <v>107569.96</v>
       </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
-      <c r="H60" t="s">
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60" t="s">
         <v>19</v>
       </c>
-      <c r="I60" t="s">
+      <c r="J60" t="s">
         <v>20</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>182336.45</v>
       </c>
-      <c r="K60" t="s">
-        <v>28</v>
-      </c>
       <c r="L60" t="s">
+        <v>28</v>
+      </c>
+      <c r="M60" t="s">
         <v>38</v>
       </c>
-      <c r="M60" t="s">
-        <v>29</v>
-      </c>
       <c r="N60" t="s">
+        <v>29</v>
+      </c>
+      <c r="O60" t="s">
         <v>24</v>
       </c>
-      <c r="O60" t="s">
+      <c r="P60" t="s">
         <v>37</v>
       </c>
-      <c r="P60">
+      <c r="Q60">
         <v>0.58995313334223631</v>
       </c>
-      <c r="Q60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A61">
+      <c r="R60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A61" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ID1512</v>
+      </c>
+      <c r="B61">
         <v>535</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>30</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>35</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>20</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>9</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>134874.4</v>
       </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-      <c r="H61" t="s">
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61" t="s">
         <v>19</v>
       </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
         <v>20</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>118825.56</v>
       </c>
-      <c r="K61" t="s">
-        <v>28</v>
-      </c>
       <c r="L61" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M61" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N61" t="s">
+        <v>29</v>
+      </c>
+      <c r="O61" t="s">
         <v>39</v>
       </c>
-      <c r="O61" t="s">
+      <c r="P61" t="s">
         <v>25</v>
       </c>
-      <c r="P61">
+      <c r="Q61">
         <v>1.1350621869570821</v>
       </c>
-      <c r="Q61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A62">
+      <c r="R61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A62" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ID1099</v>
+      </c>
+      <c r="B62">
         <v>786</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>17</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>18</v>
       </c>
-      <c r="D62">
-        <v>29</v>
-      </c>
       <c r="E62">
+        <v>29</v>
+      </c>
+      <c r="F62">
         <v>4</v>
       </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
       <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
         <v>2</v>
       </c>
-      <c r="H62" t="s">
+      <c r="I62" t="s">
         <v>19</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>31</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>103372.79</v>
       </c>
-      <c r="K62" t="s">
-        <v>28</v>
-      </c>
       <c r="L62" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M62" t="s">
+        <v>32</v>
+      </c>
+      <c r="N62" t="s">
         <v>23</v>
       </c>
-      <c r="N62" t="s">
+      <c r="O62" t="s">
         <v>34</v>
       </c>
-      <c r="O62" t="s">
+      <c r="P62" t="s">
         <v>25</v>
       </c>
-      <c r="P62">
-        <v>0</v>
-      </c>
       <c r="Q62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A63">
+      <c r="R62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A63" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ID1010</v>
+      </c>
+      <c r="B63">
         <v>620</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>17</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>18</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>67</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>3</v>
       </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
       <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
         <v>2</v>
       </c>
-      <c r="H63" t="s">
+      <c r="I63" t="s">
         <v>19</v>
       </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
         <v>20</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>43486.73</v>
       </c>
-      <c r="K63" t="s">
-        <v>28</v>
-      </c>
       <c r="L63" t="s">
+        <v>28</v>
+      </c>
+      <c r="M63" t="s">
         <v>38</v>
       </c>
-      <c r="M63" t="s">
+      <c r="N63" t="s">
         <v>23</v>
       </c>
-      <c r="N63" t="s">
+      <c r="O63" t="s">
         <v>24</v>
       </c>
-      <c r="O63" t="s">
+      <c r="P63" t="s">
         <v>33</v>
       </c>
-      <c r="P63">
-        <v>0</v>
-      </c>
       <c r="Q63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A64">
+      <c r="R63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A64" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ID1433</v>
+      </c>
+      <c r="B64">
         <v>605</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>26</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>18</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <v>48</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>6</v>
       </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
       <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
         <v>2</v>
       </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
         <v>19</v>
       </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
         <v>20</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <v>40062.99</v>
       </c>
-      <c r="K64" t="s">
-        <v>28</v>
-      </c>
       <c r="L64" t="s">
+        <v>28</v>
+      </c>
+      <c r="M64" t="s">
         <v>22</v>
       </c>
-      <c r="M64" t="s">
+      <c r="N64" t="s">
         <v>23</v>
       </c>
-      <c r="N64" t="s">
+      <c r="O64" t="s">
         <v>24</v>
       </c>
-      <c r="O64" t="s">
+      <c r="P64" t="s">
         <v>33</v>
       </c>
-      <c r="P64">
-        <v>0</v>
-      </c>
       <c r="Q64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A65">
+      <c r="R64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A65" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ID1055</v>
+      </c>
+      <c r="B65">
         <v>670</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>26</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>18</v>
       </c>
-      <c r="D65">
-        <v>32</v>
-      </c>
       <c r="E65">
+        <v>32</v>
+      </c>
+      <c r="F65">
         <v>3</v>
       </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
       <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
         <v>2</v>
       </c>
-      <c r="H65" t="s">
+      <c r="I65" t="s">
         <v>19</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>31</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>46175.7</v>
       </c>
-      <c r="K65" t="s">
-        <v>28</v>
-      </c>
       <c r="L65" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M65" t="s">
+        <v>32</v>
+      </c>
+      <c r="N65" t="s">
         <v>23</v>
       </c>
-      <c r="N65" t="s">
+      <c r="O65" t="s">
         <v>36</v>
       </c>
-      <c r="O65" t="s">
+      <c r="P65" t="s">
         <v>33</v>
       </c>
-      <c r="P65">
-        <v>0</v>
-      </c>
       <c r="Q65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A66">
+      <c r="R65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A66" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ID1941</v>
+      </c>
+      <c r="B66">
         <v>617</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>26</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>35</v>
       </c>
-      <c r="D66">
+      <c r="E66">
         <v>42</v>
       </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
       <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
         <v>70105.87</v>
       </c>
-      <c r="G66">
-        <v>1</v>
-      </c>
-      <c r="H66" t="s">
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66" t="s">
         <v>19</v>
       </c>
-      <c r="I66" t="s">
+      <c r="J66" t="s">
         <v>20</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>120830.73</v>
       </c>
-      <c r="K66" t="s">
-        <v>28</v>
-      </c>
       <c r="L66" t="s">
+        <v>28</v>
+      </c>
+      <c r="M66" t="s">
         <v>22</v>
       </c>
-      <c r="M66" t="s">
-        <v>29</v>
-      </c>
       <c r="N66" t="s">
+        <v>29</v>
+      </c>
+      <c r="O66" t="s">
         <v>24</v>
       </c>
-      <c r="O66" t="s">
+      <c r="P66" t="s">
         <v>25</v>
       </c>
-      <c r="P66">
+      <c r="Q66">
         <v>0.58019901063247736</v>
       </c>
-      <c r="Q66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A67">
+      <c r="R66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A67" t="str">
+        <f t="shared" ref="A67:A100" ca="1" si="1">"ID"&amp;RANDBETWEEN(1000,2000)</f>
+        <v>ID1942</v>
+      </c>
+      <c r="B67">
         <v>595</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>17</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>35</v>
       </c>
-      <c r="D67">
+      <c r="E67">
         <v>41</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>9</v>
       </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
       <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
         <v>2</v>
       </c>
-      <c r="H67" t="s">
+      <c r="I67" t="s">
         <v>19</v>
       </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>31</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <v>5967.09</v>
       </c>
-      <c r="K67" t="s">
-        <v>28</v>
-      </c>
       <c r="L67" t="s">
+        <v>28</v>
+      </c>
+      <c r="M67" t="s">
         <v>22</v>
       </c>
-      <c r="M67" t="s">
+      <c r="N67" t="s">
         <v>23</v>
       </c>
-      <c r="N67" t="s">
+      <c r="O67" t="s">
         <v>24</v>
       </c>
-      <c r="O67" t="s">
+      <c r="P67" t="s">
         <v>33</v>
       </c>
-      <c r="P67">
-        <v>0</v>
-      </c>
       <c r="Q67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A68">
+      <c r="R67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A68" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ID1756</v>
+      </c>
+      <c r="B68">
         <v>687</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>30</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>18</v>
       </c>
-      <c r="D68">
-        <v>29</v>
-      </c>
       <c r="E68">
+        <v>29</v>
+      </c>
+      <c r="F68">
         <v>4</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>78939.149999999994</v>
       </c>
-      <c r="G68">
-        <v>1</v>
-      </c>
-      <c r="H68" t="s">
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68" t="s">
         <v>19</v>
       </c>
-      <c r="I68" t="s">
+      <c r="J68" t="s">
         <v>31</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <v>122134.56</v>
       </c>
-      <c r="K68" t="s">
+      <c r="L68" t="s">
         <v>21</v>
       </c>
-      <c r="L68" t="s">
-        <v>32</v>
-      </c>
       <c r="M68" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N68" t="s">
+        <v>29</v>
+      </c>
+      <c r="O68" t="s">
         <v>36</v>
       </c>
-      <c r="O68" t="s">
+      <c r="P68" t="s">
         <v>25</v>
       </c>
-      <c r="P68">
+      <c r="Q68">
         <v>0.64632934363541328</v>
       </c>
-      <c r="Q68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A69">
+      <c r="R68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A69" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ID1216</v>
+      </c>
+      <c r="B69">
         <v>757</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>30</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>35</v>
       </c>
-      <c r="D69">
+      <c r="E69">
         <v>30</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>6</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>105128.85</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>2</v>
       </c>
-      <c r="H69" t="s">
+      <c r="I69" t="s">
         <v>19</v>
       </c>
-      <c r="I69" t="s">
+      <c r="J69" t="s">
         <v>20</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>62972.13</v>
       </c>
-      <c r="K69" t="s">
-        <v>28</v>
-      </c>
       <c r="L69" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M69" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N69" t="s">
+        <v>29</v>
+      </c>
+      <c r="O69" t="s">
         <v>34</v>
       </c>
-      <c r="O69" t="s">
+      <c r="P69" t="s">
         <v>40</v>
       </c>
-      <c r="P69">
+      <c r="Q69">
         <v>1.669450437836548</v>
       </c>
-      <c r="Q69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A70">
+      <c r="R69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A70" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ID1026</v>
+      </c>
+      <c r="B70">
         <v>746</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>26</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>35</v>
       </c>
-      <c r="D70">
+      <c r="E70">
         <v>31</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>2</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>113836.27</v>
       </c>
-      <c r="G70">
-        <v>1</v>
-      </c>
-      <c r="H70" t="s">
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70" t="s">
         <v>19</v>
       </c>
-      <c r="I70" t="s">
+      <c r="J70" t="s">
         <v>20</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <v>174815.54</v>
       </c>
-      <c r="K70" t="s">
-        <v>28</v>
-      </c>
       <c r="L70" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M70" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N70" t="s">
+        <v>29</v>
+      </c>
+      <c r="O70" t="s">
         <v>34</v>
       </c>
-      <c r="O70" t="s">
+      <c r="P70" t="s">
         <v>37</v>
       </c>
-      <c r="P70">
+      <c r="Q70">
         <v>0.65117935167548602</v>
       </c>
-      <c r="Q70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A71">
+      <c r="R70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A71" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ID1199</v>
+      </c>
+      <c r="B71">
         <v>503</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>26</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>35</v>
       </c>
-      <c r="D71">
+      <c r="E71">
         <v>25</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>7</v>
       </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
       <c r="G71">
-        <v>1</v>
-      </c>
-      <c r="H71" t="s">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71" t="s">
         <v>27</v>
       </c>
-      <c r="I71" t="s">
+      <c r="J71" t="s">
         <v>20</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <v>192841.13</v>
       </c>
-      <c r="K71" t="s">
-        <v>28</v>
-      </c>
       <c r="L71" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M71" t="s">
+        <v>32</v>
+      </c>
+      <c r="N71" t="s">
         <v>23</v>
       </c>
-      <c r="N71" t="s">
+      <c r="O71" t="s">
         <v>39</v>
       </c>
-      <c r="O71" t="s">
+      <c r="P71" t="s">
         <v>37</v>
       </c>
-      <c r="P71">
-        <v>0</v>
-      </c>
       <c r="Q71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A72">
+      <c r="R71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A72" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ID1221</v>
+      </c>
+      <c r="B72">
         <v>543</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>30</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>35</v>
       </c>
-      <c r="D72">
+      <c r="E72">
         <v>48</v>
       </c>
-      <c r="E72">
-        <v>1</v>
-      </c>
       <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
         <v>100900.5</v>
       </c>
-      <c r="G72">
-        <v>1</v>
-      </c>
-      <c r="H72" t="s">
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72" t="s">
         <v>27</v>
       </c>
-      <c r="I72" t="s">
+      <c r="J72" t="s">
         <v>31</v>
       </c>
-      <c r="J72">
+      <c r="K72">
         <v>33310.720000000001</v>
       </c>
-      <c r="K72" t="s">
+      <c r="L72" t="s">
         <v>21</v>
       </c>
-      <c r="L72" t="s">
+      <c r="M72" t="s">
         <v>22</v>
       </c>
-      <c r="M72" t="s">
-        <v>29</v>
-      </c>
       <c r="N72" t="s">
+        <v>29</v>
+      </c>
+      <c r="O72" t="s">
         <v>39</v>
       </c>
-      <c r="O72" t="s">
+      <c r="P72" t="s">
         <v>33</v>
       </c>
-      <c r="P72">
+      <c r="Q72">
         <v>3.0290699210344298</v>
       </c>
-      <c r="Q72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A73">
+      <c r="R72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A73" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ID1995</v>
+      </c>
+      <c r="B73">
         <v>428</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>30</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>18</v>
       </c>
-      <c r="D73">
+      <c r="E73">
         <v>40</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>3</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>129248.11</v>
       </c>
-      <c r="G73">
+      <c r="H73">
         <v>2</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
         <v>19</v>
       </c>
-      <c r="I73" t="s">
+      <c r="J73" t="s">
         <v>31</v>
       </c>
-      <c r="J73">
+      <c r="K73">
         <v>72876.429999999993</v>
       </c>
-      <c r="K73" t="s">
+      <c r="L73" t="s">
         <v>21</v>
       </c>
-      <c r="L73" t="s">
-        <v>32</v>
-      </c>
       <c r="M73" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N73" t="s">
+        <v>29</v>
+      </c>
+      <c r="O73" t="s">
         <v>39</v>
       </c>
-      <c r="O73" t="s">
+      <c r="P73" t="s">
         <v>40</v>
       </c>
-      <c r="P73">
+      <c r="Q73">
         <v>1.7735241696114921</v>
       </c>
-      <c r="Q73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A74">
+      <c r="R73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A74" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ID1450</v>
+      </c>
+      <c r="B74">
         <v>768</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>17</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>18</v>
       </c>
-      <c r="D74">
-        <v>28</v>
-      </c>
       <c r="E74">
+        <v>28</v>
+      </c>
+      <c r="F74">
         <v>3</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>109118.05</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <v>2</v>
       </c>
-      <c r="H74" t="s">
+      <c r="I74" t="s">
         <v>27</v>
       </c>
-      <c r="I74" t="s">
+      <c r="J74" t="s">
         <v>20</v>
       </c>
-      <c r="J74">
+      <c r="K74">
         <v>50911.41</v>
       </c>
-      <c r="K74" t="s">
-        <v>28</v>
-      </c>
       <c r="L74" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M74" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N74" t="s">
+        <v>29</v>
+      </c>
+      <c r="O74" t="s">
         <v>34</v>
       </c>
-      <c r="O74" t="s">
+      <c r="P74" t="s">
         <v>40</v>
       </c>
-      <c r="P74">
+      <c r="Q74">
         <v>2.1432926332230831</v>
       </c>
-      <c r="Q74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A75">
+      <c r="R74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A75" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ID1373</v>
+      </c>
+      <c r="B75">
         <v>618</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>17</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>35</v>
       </c>
-      <c r="D75">
+      <c r="E75">
         <v>56</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>7</v>
       </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
       <c r="G75">
-        <v>1</v>
-      </c>
-      <c r="H75" t="s">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75" t="s">
         <v>19</v>
       </c>
-      <c r="I75" t="s">
+      <c r="J75" t="s">
         <v>20</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <v>142400.26999999999</v>
       </c>
-      <c r="K75" t="s">
+      <c r="L75" t="s">
         <v>21</v>
       </c>
-      <c r="L75" t="s">
+      <c r="M75" t="s">
         <v>22</v>
       </c>
-      <c r="M75" t="s">
+      <c r="N75" t="s">
         <v>23</v>
       </c>
-      <c r="N75" t="s">
+      <c r="O75" t="s">
         <v>24</v>
       </c>
-      <c r="O75" t="s">
+      <c r="P75" t="s">
         <v>25</v>
       </c>
-      <c r="P75">
-        <v>0</v>
-      </c>
       <c r="Q75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A76">
+      <c r="R75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A76" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ID1991</v>
+      </c>
+      <c r="B76">
         <v>591</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>17</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>18</v>
       </c>
-      <c r="D76">
+      <c r="E76">
         <v>31</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>7</v>
       </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
       <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
         <v>2</v>
       </c>
-      <c r="H76" t="s">
+      <c r="I76" t="s">
         <v>27</v>
       </c>
-      <c r="I76" t="s">
+      <c r="J76" t="s">
         <v>20</v>
       </c>
-      <c r="J76">
+      <c r="K76">
         <v>48778.46</v>
       </c>
-      <c r="K76" t="s">
-        <v>28</v>
-      </c>
       <c r="L76" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M76" t="s">
+        <v>32</v>
+      </c>
+      <c r="N76" t="s">
         <v>23</v>
       </c>
-      <c r="N76" t="s">
+      <c r="O76" t="s">
         <v>24</v>
       </c>
-      <c r="O76" t="s">
+      <c r="P76" t="s">
         <v>33</v>
       </c>
-      <c r="P76">
-        <v>0</v>
-      </c>
       <c r="Q76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A77">
+      <c r="R76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A77" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ID1210</v>
+      </c>
+      <c r="B77">
         <v>658</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>17</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>18</v>
       </c>
-      <c r="D77">
+      <c r="E77">
         <v>35</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>5</v>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>126397.66</v>
       </c>
-      <c r="G77">
-        <v>1</v>
-      </c>
-      <c r="H77" t="s">
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77" t="s">
         <v>27</v>
       </c>
-      <c r="I77" t="s">
+      <c r="J77" t="s">
         <v>31</v>
       </c>
-      <c r="J77">
+      <c r="K77">
         <v>156361.57999999999</v>
       </c>
-      <c r="K77" t="s">
+      <c r="L77" t="s">
         <v>21</v>
       </c>
-      <c r="L77" t="s">
-        <v>32</v>
-      </c>
       <c r="M77" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N77" t="s">
+        <v>29</v>
+      </c>
+      <c r="O77" t="s">
         <v>24</v>
       </c>
-      <c r="O77" t="s">
+      <c r="P77" t="s">
         <v>37</v>
       </c>
-      <c r="P77">
+      <c r="Q77">
         <v>0.80836775888296863</v>
       </c>
-      <c r="Q77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A78">
+      <c r="R77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A78" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ID1900</v>
+      </c>
+      <c r="B78">
         <v>625</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>17</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>35</v>
       </c>
-      <c r="D78">
+      <c r="E78">
         <v>36</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <v>9</v>
       </c>
-      <c r="F78">
+      <c r="G78">
         <v>108546.16</v>
       </c>
-      <c r="G78">
+      <c r="H78">
         <v>3</v>
       </c>
-      <c r="H78" t="s">
+      <c r="I78" t="s">
         <v>19</v>
       </c>
-      <c r="I78" t="s">
+      <c r="J78" t="s">
         <v>31</v>
       </c>
-      <c r="J78">
+      <c r="K78">
         <v>133807.76999999999</v>
       </c>
-      <c r="K78" t="s">
+      <c r="L78" t="s">
         <v>21</v>
       </c>
-      <c r="L78" t="s">
-        <v>32</v>
-      </c>
       <c r="M78" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N78" t="s">
+        <v>29</v>
+      </c>
+      <c r="O78" t="s">
         <v>24</v>
       </c>
-      <c r="O78" t="s">
+      <c r="P78" t="s">
         <v>25</v>
       </c>
-      <c r="P78">
+      <c r="Q78">
         <v>0.81120969283024458</v>
       </c>
-      <c r="Q78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A79">
+      <c r="R78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A79" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ID1852</v>
+      </c>
+      <c r="B79">
         <v>717</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>17</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>35</v>
       </c>
-      <c r="D79">
+      <c r="E79">
         <v>36</v>
       </c>
-      <c r="E79">
+      <c r="F79">
         <v>2</v>
       </c>
-      <c r="F79">
+      <c r="G79">
         <v>148061.89000000001</v>
       </c>
-      <c r="G79">
-        <v>1</v>
-      </c>
-      <c r="H79" t="s">
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79" t="s">
         <v>19</v>
       </c>
-      <c r="I79" t="s">
+      <c r="J79" t="s">
         <v>31</v>
       </c>
-      <c r="J79">
+      <c r="K79">
         <v>179128.69</v>
       </c>
-      <c r="K79" t="s">
+      <c r="L79" t="s">
         <v>21</v>
       </c>
-      <c r="L79" t="s">
-        <v>32</v>
-      </c>
       <c r="M79" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N79" t="s">
+        <v>29</v>
+      </c>
+      <c r="O79" t="s">
         <v>36</v>
       </c>
-      <c r="O79" t="s">
+      <c r="P79" t="s">
         <v>37</v>
       </c>
-      <c r="P79">
+      <c r="Q79">
         <v>0.82656714566494072</v>
       </c>
-      <c r="Q79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A80">
+      <c r="R79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A80" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ID1925</v>
+      </c>
+      <c r="B80">
         <v>667</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>17</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>35</v>
       </c>
-      <c r="D80">
+      <c r="E80">
         <v>44</v>
       </c>
-      <c r="E80">
+      <c r="F80">
         <v>8</v>
       </c>
-      <c r="F80">
+      <c r="G80">
         <v>122277.87</v>
       </c>
-      <c r="G80">
-        <v>1</v>
-      </c>
-      <c r="H80" t="s">
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80" t="s">
         <v>19</v>
       </c>
-      <c r="I80" t="s">
+      <c r="J80" t="s">
         <v>20</v>
       </c>
-      <c r="J80">
+      <c r="K80">
         <v>91810.71</v>
       </c>
-      <c r="K80" t="s">
-        <v>28</v>
-      </c>
       <c r="L80" t="s">
+        <v>28</v>
+      </c>
+      <c r="M80" t="s">
         <v>22</v>
       </c>
-      <c r="M80" t="s">
-        <v>29</v>
-      </c>
       <c r="N80" t="s">
+        <v>29</v>
+      </c>
+      <c r="O80" t="s">
         <v>24</v>
       </c>
-      <c r="O80" t="s">
+      <c r="P80" t="s">
         <v>40</v>
       </c>
-      <c r="P80">
+      <c r="Q80">
         <v>1.3318475589612579</v>
       </c>
-      <c r="Q80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A81">
+      <c r="R80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A81" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ID1871</v>
+      </c>
+      <c r="B81">
         <v>804</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>17</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>35</v>
       </c>
-      <c r="D81">
+      <c r="E81">
         <v>24</v>
       </c>
-      <c r="E81">
+      <c r="F81">
         <v>3</v>
       </c>
-      <c r="F81">
-        <v>0</v>
-      </c>
       <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
         <v>2</v>
       </c>
-      <c r="H81" t="s">
+      <c r="I81" t="s">
         <v>19</v>
       </c>
-      <c r="I81" t="s">
+      <c r="J81" t="s">
         <v>31</v>
       </c>
-      <c r="J81">
+      <c r="K81">
         <v>173195.33</v>
       </c>
-      <c r="K81" t="s">
-        <v>28</v>
-      </c>
       <c r="L81" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M81" t="s">
+        <v>32</v>
+      </c>
+      <c r="N81" t="s">
         <v>23</v>
       </c>
-      <c r="N81" t="s">
+      <c r="O81" t="s">
         <v>41</v>
       </c>
-      <c r="O81" t="s">
+      <c r="P81" t="s">
         <v>37</v>
       </c>
-      <c r="P81">
-        <v>0</v>
-      </c>
       <c r="Q81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A82">
+      <c r="R81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A82" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ID1309</v>
+      </c>
+      <c r="B82">
         <v>693</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>17</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>35</v>
       </c>
-      <c r="D82">
+      <c r="E82">
         <v>31</v>
       </c>
-      <c r="E82">
-        <v>1</v>
-      </c>
       <c r="F82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
         <v>2</v>
       </c>
-      <c r="H82" t="s">
+      <c r="I82" t="s">
         <v>27</v>
       </c>
-      <c r="I82" t="s">
+      <c r="J82" t="s">
         <v>20</v>
       </c>
-      <c r="J82">
+      <c r="K82">
         <v>182270.88</v>
       </c>
-      <c r="K82" t="s">
-        <v>28</v>
-      </c>
       <c r="L82" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M82" t="s">
+        <v>32</v>
+      </c>
+      <c r="N82" t="s">
         <v>23</v>
       </c>
-      <c r="N82" t="s">
+      <c r="O82" t="s">
         <v>36</v>
       </c>
-      <c r="O82" t="s">
+      <c r="P82" t="s">
         <v>37</v>
       </c>
-      <c r="P82">
-        <v>0</v>
-      </c>
       <c r="Q82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A83">
+      <c r="R82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A83" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ID1225</v>
+      </c>
+      <c r="B83">
         <v>729</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>30</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>35</v>
       </c>
-      <c r="D83">
+      <c r="E83">
         <v>36</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <v>8</v>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>152899.24</v>
       </c>
-      <c r="G83">
+      <c r="H83">
         <v>2</v>
       </c>
-      <c r="H83" t="s">
+      <c r="I83" t="s">
         <v>19</v>
       </c>
-      <c r="I83" t="s">
+      <c r="J83" t="s">
         <v>31</v>
       </c>
-      <c r="J83">
+      <c r="K83">
         <v>177130.33</v>
       </c>
-      <c r="K83" t="s">
-        <v>28</v>
-      </c>
       <c r="L83" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M83" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N83" t="s">
+        <v>29</v>
+      </c>
+      <c r="O83" t="s">
         <v>36</v>
       </c>
-      <c r="O83" t="s">
+      <c r="P83" t="s">
         <v>37</v>
       </c>
-      <c r="P83">
+      <c r="Q83">
         <v>0.86320191465798091</v>
       </c>
-      <c r="Q83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A84">
+      <c r="R83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A84" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ID1692</v>
+      </c>
+      <c r="B84">
         <v>484</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>30</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>35</v>
       </c>
-      <c r="D84">
+      <c r="E84">
         <v>54</v>
       </c>
-      <c r="E84">
+      <c r="F84">
         <v>3</v>
       </c>
-      <c r="F84">
+      <c r="G84">
         <v>134388.10999999999</v>
       </c>
-      <c r="G84">
-        <v>1</v>
-      </c>
-      <c r="H84" t="s">
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84" t="s">
         <v>27</v>
       </c>
-      <c r="I84" t="s">
+      <c r="J84" t="s">
         <v>31</v>
       </c>
-      <c r="J84">
+      <c r="K84">
         <v>49954.79</v>
       </c>
-      <c r="K84" t="s">
+      <c r="L84" t="s">
         <v>21</v>
       </c>
-      <c r="L84" t="s">
+      <c r="M84" t="s">
         <v>22</v>
       </c>
-      <c r="M84" t="s">
-        <v>29</v>
-      </c>
       <c r="N84" t="s">
+        <v>29</v>
+      </c>
+      <c r="O84" t="s">
         <v>39</v>
       </c>
-      <c r="O84" t="s">
+      <c r="P84" t="s">
         <v>33</v>
       </c>
-      <c r="P84">
+      <c r="Q84">
         <v>2.6901946740242519</v>
       </c>
-      <c r="Q84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A85">
+      <c r="R84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A85" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ID1195</v>
+      </c>
+      <c r="B85">
         <v>632</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>26</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>18</v>
       </c>
-      <c r="D85">
+      <c r="E85">
         <v>40</v>
       </c>
-      <c r="E85">
+      <c r="F85">
         <v>3</v>
       </c>
-      <c r="F85">
+      <c r="G85">
         <v>109740.62</v>
       </c>
-      <c r="G85">
-        <v>1</v>
-      </c>
-      <c r="H85" t="s">
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85" t="s">
         <v>19</v>
       </c>
-      <c r="I85" t="s">
+      <c r="J85" t="s">
         <v>31</v>
       </c>
-      <c r="J85">
+      <c r="K85">
         <v>141896.74</v>
       </c>
-      <c r="K85" t="s">
-        <v>28</v>
-      </c>
       <c r="L85" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M85" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N85" t="s">
+        <v>29</v>
+      </c>
+      <c r="O85" t="s">
         <v>24</v>
       </c>
-      <c r="O85" t="s">
+      <c r="P85" t="s">
         <v>25</v>
       </c>
-      <c r="P85">
+      <c r="Q85">
         <v>0.77338365913128093</v>
       </c>
-      <c r="Q85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A86">
+      <c r="R85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A86" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ID1576</v>
+      </c>
+      <c r="B86">
         <v>536</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>30</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>35</v>
       </c>
-      <c r="D86">
+      <c r="E86">
         <v>23</v>
       </c>
-      <c r="E86">
+      <c r="F86">
         <v>6</v>
       </c>
-      <c r="F86">
+      <c r="G86">
         <v>92366.720000000001</v>
       </c>
-      <c r="G86">
+      <c r="H86">
         <v>2</v>
       </c>
-      <c r="H86" t="s">
+      <c r="I86" t="s">
         <v>19</v>
       </c>
-      <c r="I86" t="s">
+      <c r="J86" t="s">
         <v>31</v>
       </c>
-      <c r="J86">
+      <c r="K86">
         <v>120661.71</v>
       </c>
-      <c r="K86" t="s">
-        <v>28</v>
-      </c>
       <c r="L86" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M86" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N86" t="s">
+        <v>29</v>
+      </c>
+      <c r="O86" t="s">
         <v>39</v>
       </c>
-      <c r="O86" t="s">
+      <c r="P86" t="s">
         <v>25</v>
       </c>
-      <c r="P86">
+      <c r="Q86">
         <v>0.76550150002018036</v>
       </c>
-      <c r="Q86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A87">
+      <c r="R86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A87" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ID1058</v>
+      </c>
+      <c r="B87">
         <v>573</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>17</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>18</v>
       </c>
-      <c r="D87">
+      <c r="E87">
         <v>26</v>
       </c>
-      <c r="E87">
+      <c r="F87">
         <v>4</v>
       </c>
-      <c r="F87">
+      <c r="G87">
         <v>129109.02</v>
       </c>
-      <c r="G87">
-        <v>1</v>
-      </c>
-      <c r="H87" t="s">
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87" t="s">
         <v>27</v>
       </c>
-      <c r="I87" t="s">
+      <c r="J87" t="s">
         <v>31</v>
       </c>
-      <c r="J87">
+      <c r="K87">
         <v>149814.68</v>
       </c>
-      <c r="K87" t="s">
+      <c r="L87" t="s">
         <v>21</v>
       </c>
-      <c r="L87" t="s">
-        <v>32</v>
-      </c>
       <c r="M87" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N87" t="s">
+        <v>29</v>
+      </c>
+      <c r="O87" t="s">
         <v>39</v>
       </c>
-      <c r="O87" t="s">
+      <c r="P87" t="s">
         <v>25</v>
       </c>
-      <c r="P87">
+      <c r="Q87">
         <v>0.8617915146900158</v>
       </c>
-      <c r="Q87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A88">
+      <c r="R87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A88" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ID1375</v>
+      </c>
+      <c r="B88">
         <v>655</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>26</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>18</v>
       </c>
-      <c r="D88">
+      <c r="E88">
         <v>56</v>
       </c>
-      <c r="E88">
+      <c r="F88">
         <v>5</v>
       </c>
-      <c r="F88">
-        <v>0</v>
-      </c>
       <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
         <v>2</v>
       </c>
-      <c r="H88" t="s">
+      <c r="I88" t="s">
         <v>19</v>
       </c>
-      <c r="I88" t="s">
+      <c r="J88" t="s">
         <v>20</v>
       </c>
-      <c r="J88">
+      <c r="K88">
         <v>41782.699999999997</v>
       </c>
-      <c r="K88" t="s">
-        <v>28</v>
-      </c>
       <c r="L88" t="s">
+        <v>28</v>
+      </c>
+      <c r="M88" t="s">
         <v>22</v>
       </c>
-      <c r="M88" t="s">
+      <c r="N88" t="s">
         <v>23</v>
       </c>
-      <c r="N88" t="s">
+      <c r="O88" t="s">
         <v>24</v>
       </c>
-      <c r="O88" t="s">
+      <c r="P88" t="s">
         <v>33</v>
       </c>
-      <c r="P88">
-        <v>0</v>
-      </c>
       <c r="Q88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A89">
+      <c r="R88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A89" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ID1653</v>
+      </c>
+      <c r="B89">
         <v>666</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>30</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>35</v>
       </c>
-      <c r="D89">
+      <c r="E89">
         <v>74</v>
       </c>
-      <c r="E89">
+      <c r="F89">
         <v>7</v>
       </c>
-      <c r="F89">
+      <c r="G89">
         <v>105102.5</v>
       </c>
-      <c r="G89">
-        <v>1</v>
-      </c>
-      <c r="H89" t="s">
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89" t="s">
         <v>19</v>
       </c>
-      <c r="I89" t="s">
+      <c r="J89" t="s">
         <v>20</v>
       </c>
-      <c r="J89">
+      <c r="K89">
         <v>46172.47</v>
       </c>
-      <c r="K89" t="s">
-        <v>28</v>
-      </c>
       <c r="L89" t="s">
+        <v>28</v>
+      </c>
+      <c r="M89" t="s">
         <v>38</v>
       </c>
-      <c r="M89" t="s">
-        <v>29</v>
-      </c>
       <c r="N89" t="s">
+        <v>29</v>
+      </c>
+      <c r="O89" t="s">
         <v>24</v>
       </c>
-      <c r="O89" t="s">
+      <c r="P89" t="s">
         <v>33</v>
       </c>
-      <c r="P89">
+      <c r="Q89">
         <v>2.2763023074139199</v>
       </c>
-      <c r="Q89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A90">
+      <c r="R89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A90" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ID1009</v>
+      </c>
+      <c r="B90">
         <v>726</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>30</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>35</v>
       </c>
-      <c r="D90">
+      <c r="E90">
         <v>30</v>
       </c>
-      <c r="E90">
+      <c r="F90">
         <v>5</v>
       </c>
-      <c r="F90">
+      <c r="G90">
         <v>111375.32</v>
       </c>
-      <c r="G90">
+      <c r="H90">
         <v>2</v>
       </c>
-      <c r="H90" t="s">
+      <c r="I90" t="s">
         <v>19</v>
       </c>
-      <c r="I90" t="s">
+      <c r="J90" t="s">
         <v>31</v>
       </c>
-      <c r="J90">
+      <c r="K90">
         <v>2704.09</v>
       </c>
-      <c r="K90" t="s">
-        <v>28</v>
-      </c>
       <c r="L90" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M90" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N90" t="s">
+        <v>29</v>
+      </c>
+      <c r="O90" t="s">
         <v>36</v>
       </c>
-      <c r="O90" t="s">
+      <c r="P90" t="s">
         <v>33</v>
       </c>
-      <c r="P90">
+      <c r="Q90">
         <v>41.187726739864431</v>
       </c>
-      <c r="Q90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A91">
+      <c r="R90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A91" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ID1611</v>
+      </c>
+      <c r="B91">
         <v>523</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>17</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>35</v>
       </c>
-      <c r="D91">
+      <c r="E91">
         <v>39</v>
       </c>
-      <c r="E91">
+      <c r="F91">
         <v>3</v>
       </c>
-      <c r="F91">
-        <v>0</v>
-      </c>
       <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
         <v>2</v>
       </c>
-      <c r="H91" t="s">
+      <c r="I91" t="s">
         <v>19</v>
       </c>
-      <c r="I91" t="s">
+      <c r="J91" t="s">
         <v>31</v>
       </c>
-      <c r="J91">
+      <c r="K91">
         <v>6726.53</v>
       </c>
-      <c r="K91" t="s">
-        <v>28</v>
-      </c>
       <c r="L91" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M91" t="s">
+        <v>32</v>
+      </c>
+      <c r="N91" t="s">
         <v>23</v>
       </c>
-      <c r="N91" t="s">
+      <c r="O91" t="s">
         <v>39</v>
       </c>
-      <c r="O91" t="s">
+      <c r="P91" t="s">
         <v>33</v>
       </c>
-      <c r="P91">
-        <v>0</v>
-      </c>
       <c r="Q91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A92">
+      <c r="R91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A92" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ID1358</v>
+      </c>
+      <c r="B92">
         <v>728</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>30</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>18</v>
       </c>
-      <c r="D92">
+      <c r="E92">
         <v>33</v>
       </c>
-      <c r="E92">
+      <c r="F92">
         <v>9</v>
       </c>
-      <c r="F92">
+      <c r="G92">
         <v>150412.14000000001</v>
       </c>
-      <c r="G92">
+      <c r="H92">
         <v>2</v>
       </c>
-      <c r="H92" t="s">
+      <c r="I92" t="s">
         <v>19</v>
       </c>
-      <c r="I92" t="s">
+      <c r="J92" t="s">
         <v>31</v>
       </c>
-      <c r="J92">
+      <c r="K92">
         <v>170764.08</v>
       </c>
-      <c r="K92" t="s">
-        <v>28</v>
-      </c>
       <c r="L92" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M92" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N92" t="s">
+        <v>29</v>
+      </c>
+      <c r="O92" t="s">
         <v>36</v>
       </c>
-      <c r="O92" t="s">
+      <c r="P92" t="s">
         <v>37</v>
       </c>
-      <c r="P92">
+      <c r="Q92">
         <v>0.88081837819756958</v>
       </c>
-      <c r="Q92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A93">
+      <c r="R92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A93" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ID1919</v>
+      </c>
+      <c r="B93">
         <v>701</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>17</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>35</v>
       </c>
-      <c r="D93">
+      <c r="E93">
         <v>30</v>
       </c>
-      <c r="E93">
+      <c r="F93">
         <v>3</v>
       </c>
-      <c r="F93">
+      <c r="G93">
         <v>156660.72</v>
       </c>
-      <c r="G93">
+      <c r="H93">
         <v>2</v>
       </c>
-      <c r="H93" t="s">
+      <c r="I93" t="s">
         <v>19</v>
       </c>
-      <c r="I93" t="s">
+      <c r="J93" t="s">
         <v>31</v>
       </c>
-      <c r="J93">
+      <c r="K93">
         <v>45742.42</v>
       </c>
-      <c r="K93" t="s">
-        <v>28</v>
-      </c>
       <c r="L93" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M93" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N93" t="s">
+        <v>29</v>
+      </c>
+      <c r="O93" t="s">
         <v>36</v>
       </c>
-      <c r="O93" t="s">
+      <c r="P93" t="s">
         <v>33</v>
       </c>
-      <c r="P93">
+      <c r="Q93">
         <v>3.4248454716650318</v>
       </c>
-      <c r="Q93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A94">
+      <c r="R93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A94" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ID1211</v>
+      </c>
+      <c r="B94">
         <v>518</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>17</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>35</v>
       </c>
-      <c r="D94">
+      <c r="E94">
         <v>38</v>
       </c>
-      <c r="E94">
+      <c r="F94">
         <v>3</v>
       </c>
-      <c r="F94">
+      <c r="G94">
         <v>90957.81</v>
       </c>
-      <c r="G94">
-        <v>1</v>
-      </c>
-      <c r="H94" t="s">
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94" t="s">
         <v>27</v>
       </c>
-      <c r="I94" t="s">
+      <c r="J94" t="s">
         <v>20</v>
       </c>
-      <c r="J94">
+      <c r="K94">
         <v>162304.59</v>
       </c>
-      <c r="K94" t="s">
-        <v>28</v>
-      </c>
       <c r="L94" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M94" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N94" t="s">
+        <v>29</v>
+      </c>
+      <c r="O94" t="s">
         <v>39</v>
       </c>
-      <c r="O94" t="s">
+      <c r="P94" t="s">
         <v>37</v>
       </c>
-      <c r="P94">
+      <c r="Q94">
         <v>0.56041428033550988</v>
       </c>
-      <c r="Q94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A95">
+      <c r="R94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A95" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ID1380</v>
+      </c>
+      <c r="B95">
         <v>808</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>26</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>35</v>
       </c>
-      <c r="D95">
+      <c r="E95">
         <v>25</v>
       </c>
-      <c r="E95">
+      <c r="F95">
         <v>7</v>
       </c>
-      <c r="F95">
-        <v>0</v>
-      </c>
       <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
         <v>2</v>
       </c>
-      <c r="H95" t="s">
+      <c r="I95" t="s">
         <v>27</v>
       </c>
-      <c r="I95" t="s">
+      <c r="J95" t="s">
         <v>20</v>
       </c>
-      <c r="J95">
+      <c r="K95">
         <v>23180.37</v>
       </c>
-      <c r="K95" t="s">
-        <v>28</v>
-      </c>
       <c r="L95" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M95" t="s">
+        <v>32</v>
+      </c>
+      <c r="N95" t="s">
         <v>23</v>
       </c>
-      <c r="N95" t="s">
+      <c r="O95" t="s">
         <v>41</v>
       </c>
-      <c r="O95" t="s">
+      <c r="P95" t="s">
         <v>33</v>
       </c>
-      <c r="P95">
-        <v>0</v>
-      </c>
       <c r="Q95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A96">
+      <c r="R95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A96" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ID1633</v>
+      </c>
+      <c r="B96">
         <v>641</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
         <v>17</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>35</v>
       </c>
-      <c r="D96">
+      <c r="E96">
         <v>33</v>
       </c>
-      <c r="E96">
+      <c r="F96">
         <v>2</v>
       </c>
-      <c r="F96">
+      <c r="G96">
         <v>146193.60000000001</v>
       </c>
-      <c r="G96">
+      <c r="H96">
         <v>2</v>
       </c>
-      <c r="H96" t="s">
+      <c r="I96" t="s">
         <v>19</v>
       </c>
-      <c r="I96" t="s">
+      <c r="J96" t="s">
         <v>20</v>
       </c>
-      <c r="J96">
+      <c r="K96">
         <v>55796.83</v>
       </c>
-      <c r="K96" t="s">
+      <c r="L96" t="s">
         <v>21</v>
       </c>
-      <c r="L96" t="s">
-        <v>32</v>
-      </c>
       <c r="M96" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N96" t="s">
+        <v>29</v>
+      </c>
+      <c r="O96" t="s">
         <v>24</v>
       </c>
-      <c r="O96" t="s">
+      <c r="P96" t="s">
         <v>40</v>
       </c>
-      <c r="P96">
+      <c r="Q96">
         <v>2.620105837553854</v>
       </c>
-      <c r="Q96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A97">
+      <c r="R96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A97" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ID1305</v>
+      </c>
+      <c r="B97">
         <v>700</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>26</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
         <v>35</v>
       </c>
-      <c r="D97">
-        <v>29</v>
-      </c>
       <c r="E97">
+        <v>29</v>
+      </c>
+      <c r="F97">
         <v>8</v>
       </c>
-      <c r="F97">
-        <v>0</v>
-      </c>
       <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
         <v>2</v>
       </c>
-      <c r="H97" t="s">
+      <c r="I97" t="s">
         <v>27</v>
       </c>
-      <c r="I97" t="s">
+      <c r="J97" t="s">
         <v>20</v>
       </c>
-      <c r="J97">
+      <c r="K97">
         <v>152097.01999999999</v>
       </c>
-      <c r="K97" t="s">
-        <v>28</v>
-      </c>
       <c r="L97" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M97" t="s">
+        <v>32</v>
+      </c>
+      <c r="N97" t="s">
         <v>23</v>
       </c>
-      <c r="N97" t="s">
+      <c r="O97" t="s">
         <v>36</v>
       </c>
-      <c r="O97" t="s">
+      <c r="P97" t="s">
         <v>37</v>
       </c>
-      <c r="P97">
-        <v>0</v>
-      </c>
       <c r="Q97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A98">
+      <c r="R97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A98" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ID1367</v>
+      </c>
+      <c r="B98">
         <v>660</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>30</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
         <v>35</v>
       </c>
-      <c r="D98">
+      <c r="E98">
         <v>26</v>
       </c>
-      <c r="E98">
+      <c r="F98">
         <v>4</v>
       </c>
-      <c r="F98">
+      <c r="G98">
         <v>115021.75999999999</v>
       </c>
-      <c r="G98">
-        <v>1</v>
-      </c>
-      <c r="H98" t="s">
+      <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98" t="s">
         <v>27</v>
       </c>
-      <c r="I98" t="s">
+      <c r="J98" t="s">
         <v>20</v>
       </c>
-      <c r="J98">
+      <c r="K98">
         <v>162443.04999999999</v>
       </c>
-      <c r="K98" t="s">
-        <v>28</v>
-      </c>
       <c r="L98" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M98" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N98" t="s">
+        <v>29</v>
+      </c>
+      <c r="O98" t="s">
         <v>24</v>
       </c>
-      <c r="O98" t="s">
+      <c r="P98" t="s">
         <v>37</v>
       </c>
-      <c r="P98">
+      <c r="Q98">
         <v>0.70807436821704595</v>
       </c>
-      <c r="Q98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A99">
+      <c r="R98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A99" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ID1786</v>
+      </c>
+      <c r="B99">
         <v>615</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
         <v>26</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>35</v>
       </c>
-      <c r="D99">
+      <c r="E99">
         <v>41</v>
       </c>
-      <c r="E99">
-        <v>1</v>
-      </c>
       <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99">
         <v>126773.43</v>
       </c>
-      <c r="G99">
-        <v>1</v>
-      </c>
-      <c r="H99" t="s">
+      <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99" t="s">
         <v>19</v>
       </c>
-      <c r="I99" t="s">
+      <c r="J99" t="s">
         <v>20</v>
       </c>
-      <c r="J99">
+      <c r="K99">
         <v>55551.26</v>
       </c>
-      <c r="K99" t="s">
-        <v>28</v>
-      </c>
       <c r="L99" t="s">
+        <v>28</v>
+      </c>
+      <c r="M99" t="s">
         <v>22</v>
       </c>
-      <c r="M99" t="s">
-        <v>29</v>
-      </c>
       <c r="N99" t="s">
+        <v>29</v>
+      </c>
+      <c r="O99" t="s">
         <v>24</v>
       </c>
-      <c r="O99" t="s">
+      <c r="P99" t="s">
         <v>40</v>
       </c>
-      <c r="P99">
+      <c r="Q99">
         <v>2.2820981918321919</v>
       </c>
-      <c r="Q99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A100">
+      <c r="R99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A100" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ID1313</v>
+      </c>
+      <c r="B100">
         <v>705</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>30</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>18</v>
       </c>
-      <c r="D100">
+      <c r="E100">
         <v>40</v>
       </c>
-      <c r="E100">
+      <c r="F100">
         <v>3</v>
       </c>
-      <c r="F100">
+      <c r="G100">
         <v>92889.91</v>
       </c>
-      <c r="G100">
-        <v>1</v>
-      </c>
-      <c r="H100" t="s">
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100" t="s">
         <v>19</v>
       </c>
-      <c r="I100" t="s">
+      <c r="J100" t="s">
         <v>20</v>
       </c>
-      <c r="J100">
+      <c r="K100">
         <v>109496.69</v>
       </c>
-      <c r="K100" t="s">
-        <v>28</v>
-      </c>
       <c r="L100" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M100" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N100" t="s">
+        <v>29</v>
+      </c>
+      <c r="O100" t="s">
         <v>36</v>
       </c>
-      <c r="O100" t="s">
+      <c r="P100" t="s">
         <v>25</v>
       </c>
-      <c r="P100">
+      <c r="Q100">
         <v>0.84833532410888401</v>
       </c>
-      <c r="Q100">
+      <c r="R100">
         <v>0</v>
       </c>
     </row>
